--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col9a2-Mag.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col9a2-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +94,7 @@
     <t>Mag</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.309866506901262</v>
+        <v>0.1050703333333333</v>
       </c>
       <c r="H2">
-        <v>0.309866506901262</v>
+        <v>0.315211</v>
       </c>
       <c r="I2">
-        <v>0.6237650345788786</v>
+        <v>0.1577410389877502</v>
       </c>
       <c r="J2">
-        <v>0.6237650345788786</v>
+        <v>0.1749973490381311</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P2">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q2">
-        <v>0.08730890646224572</v>
+        <v>0.0005621262833333333</v>
       </c>
       <c r="R2">
-        <v>0.08730890646224572</v>
+        <v>0.00505913655</v>
       </c>
       <c r="S2">
-        <v>0.1454143087610247</v>
+        <v>0.0005328429101837055</v>
       </c>
       <c r="T2">
-        <v>0.1454143087610247</v>
+        <v>0.0007428534765439894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +587,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.309866506901262</v>
+        <v>0.1050703333333333</v>
       </c>
       <c r="H3">
-        <v>0.309866506901262</v>
+        <v>0.315211</v>
       </c>
       <c r="I3">
-        <v>0.6237650345788786</v>
+        <v>0.1577410389877502</v>
       </c>
       <c r="J3">
-        <v>0.6237650345788786</v>
+        <v>0.1749973490381311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.926879349643739</v>
+        <v>0.3904073333333333</v>
       </c>
       <c r="N3">
-        <v>0.926879349643739</v>
+        <v>1.171222</v>
       </c>
       <c r="O3">
-        <v>0.7668764667785554</v>
+        <v>0.2465009964981815</v>
       </c>
       <c r="P3">
-        <v>0.7668764667785554</v>
+        <v>0.3097675173916965</v>
       </c>
       <c r="Q3">
-        <v>0.2872088663930188</v>
+        <v>0.04102022864911111</v>
       </c>
       <c r="R3">
-        <v>0.2872088663930188</v>
+        <v>0.369182057842</v>
       </c>
       <c r="S3">
-        <v>0.4783507258178538</v>
+        <v>0.03888332329913894</v>
       </c>
       <c r="T3">
-        <v>0.4783507258178538</v>
+        <v>0.05420849436167006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.186901490218778</v>
+        <v>0.1050703333333333</v>
       </c>
       <c r="H4">
-        <v>0.186901490218778</v>
+        <v>0.315211</v>
       </c>
       <c r="I4">
-        <v>0.3762349654211214</v>
+        <v>0.1577410389877502</v>
       </c>
       <c r="J4">
-        <v>0.3762349654211214</v>
+        <v>0.1749973490381311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.281762967335048</v>
+        <v>0.2176213333333333</v>
       </c>
       <c r="N4">
-        <v>0.281762967335048</v>
+        <v>0.652864</v>
       </c>
       <c r="O4">
-        <v>0.2331235332214446</v>
+        <v>0.1374048870135541</v>
       </c>
       <c r="P4">
-        <v>0.2331235332214446</v>
+        <v>0.1726709884841751</v>
       </c>
       <c r="Q4">
-        <v>0.05266191848338534</v>
+        <v>0.02286554603377778</v>
       </c>
       <c r="R4">
-        <v>0.05266191848338534</v>
+        <v>0.205789914304</v>
       </c>
       <c r="S4">
-        <v>0.08770922446041987</v>
+        <v>0.02167438963951245</v>
       </c>
       <c r="T4">
-        <v>0.08770922446041987</v>
+        <v>0.03021696524052431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1050703333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.315211</v>
+      </c>
+      <c r="I5">
+        <v>0.1577410389877502</v>
+      </c>
+      <c r="J5">
+        <v>0.1749973490381311</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N5">
+        <v>1.940835</v>
+      </c>
+      <c r="O5">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P5">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q5">
+        <v>0.1019620901975</v>
+      </c>
+      <c r="R5">
+        <v>0.611772541185</v>
+      </c>
+      <c r="S5">
+        <v>0.09665048313891514</v>
+      </c>
+      <c r="T5">
+        <v>0.08982903595939276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.318026</v>
+      </c>
+      <c r="H6">
+        <v>0.954078</v>
+      </c>
+      <c r="I6">
+        <v>0.477449248266573</v>
+      </c>
+      <c r="J6">
+        <v>0.5296805021893336</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.00535</v>
+      </c>
+      <c r="N6">
+        <v>0.01605</v>
+      </c>
+      <c r="O6">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P6">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q6">
+        <v>0.0017014391</v>
+      </c>
+      <c r="R6">
+        <v>0.0153129519</v>
+      </c>
+      <c r="S6">
+        <v>0.001612804432783911</v>
+      </c>
+      <c r="T6">
+        <v>0.002248462646272295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.318026</v>
+      </c>
+      <c r="H7">
+        <v>0.954078</v>
+      </c>
+      <c r="I7">
+        <v>0.477449248266573</v>
+      </c>
+      <c r="J7">
+        <v>0.5296805021893336</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.171222</v>
+      </c>
+      <c r="O7">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P7">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q7">
+        <v>0.1241596825906667</v>
+      </c>
+      <c r="R7">
+        <v>1.117437143316</v>
+      </c>
+      <c r="S7">
+        <v>0.1176917154750179</v>
+      </c>
+      <c r="T7">
+        <v>0.1640778141739769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.318026</v>
+      </c>
+      <c r="H8">
+        <v>0.954078</v>
+      </c>
+      <c r="I8">
+        <v>0.477449248266573</v>
+      </c>
+      <c r="J8">
+        <v>0.5296805021893336</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.652864</v>
+      </c>
+      <c r="O8">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P8">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q8">
+        <v>0.06920924215466666</v>
+      </c>
+      <c r="R8">
+        <v>0.622883179392</v>
+      </c>
+      <c r="S8">
+        <v>0.06560386001277478</v>
+      </c>
+      <c r="T8">
+        <v>0.09146045589382651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.186901490218778</v>
-      </c>
-      <c r="H5">
-        <v>0.186901490218778</v>
-      </c>
-      <c r="I5">
-        <v>0.3762349654211214</v>
-      </c>
-      <c r="J5">
-        <v>0.3762349654211214</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="N5">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="O5">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="P5">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="Q5">
-        <v>0.1732351317014266</v>
-      </c>
-      <c r="R5">
-        <v>0.1732351317014266</v>
-      </c>
-      <c r="S5">
-        <v>0.2885257409607015</v>
-      </c>
-      <c r="T5">
-        <v>0.2885257409607015</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.318026</v>
+      </c>
+      <c r="H9">
+        <v>0.954078</v>
+      </c>
+      <c r="I9">
+        <v>0.477449248266573</v>
+      </c>
+      <c r="J9">
+        <v>0.5296805021893336</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.940835</v>
+      </c>
+      <c r="O9">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P9">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q9">
+        <v>0.3086179958549999</v>
+      </c>
+      <c r="R9">
+        <v>1.85170797513</v>
+      </c>
+      <c r="S9">
+        <v>0.2925408683459964</v>
+      </c>
+      <c r="T9">
+        <v>0.2718937694752579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.045949</v>
+      </c>
+      <c r="H10">
+        <v>0.137847</v>
+      </c>
+      <c r="I10">
+        <v>0.06898277344808527</v>
+      </c>
+      <c r="J10">
+        <v>0.07652924413443457</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.00535</v>
+      </c>
+      <c r="N10">
+        <v>0.01605</v>
+      </c>
+      <c r="O10">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P10">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q10">
+        <v>0.0002458271499999999</v>
+      </c>
+      <c r="R10">
+        <v>0.00221244435</v>
+      </c>
+      <c r="S10">
+        <v>0.0002330210450780374</v>
+      </c>
+      <c r="T10">
+        <v>0.0003248621500555479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.045949</v>
+      </c>
+      <c r="H11">
+        <v>0.137847</v>
+      </c>
+      <c r="I11">
+        <v>0.06898277344808527</v>
+      </c>
+      <c r="J11">
+        <v>0.07652924413443457</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.171222</v>
+      </c>
+      <c r="O11">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P11">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q11">
+        <v>0.01793882655933333</v>
+      </c>
+      <c r="R11">
+        <v>0.161449439034</v>
+      </c>
+      <c r="S11">
+        <v>0.01700432239616132</v>
+      </c>
+      <c r="T11">
+        <v>0.02370627396338685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.045949</v>
+      </c>
+      <c r="H12">
+        <v>0.137847</v>
+      </c>
+      <c r="I12">
+        <v>0.06898277344808527</v>
+      </c>
+      <c r="J12">
+        <v>0.07652924413443457</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.652864</v>
+      </c>
+      <c r="O12">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P12">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q12">
+        <v>0.009999482645333332</v>
+      </c>
+      <c r="R12">
+        <v>0.08999534380799999</v>
+      </c>
+      <c r="S12">
+        <v>0.009478570191515753</v>
+      </c>
+      <c r="T12">
+        <v>0.01321438023263958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.045949</v>
+      </c>
+      <c r="H13">
+        <v>0.137847</v>
+      </c>
+      <c r="I13">
+        <v>0.06898277344808527</v>
+      </c>
+      <c r="J13">
+        <v>0.07652924413443457</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.940835</v>
+      </c>
+      <c r="O13">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P13">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q13">
+        <v>0.04458971370749999</v>
+      </c>
+      <c r="R13">
+        <v>0.267538282245</v>
+      </c>
+      <c r="S13">
+        <v>0.04226685981533016</v>
+      </c>
+      <c r="T13">
+        <v>0.0392837277883526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1970485</v>
+      </c>
+      <c r="H14">
+        <v>0.394097</v>
+      </c>
+      <c r="I14">
+        <v>0.2958269392975915</v>
+      </c>
+      <c r="J14">
+        <v>0.2187929046381007</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.00535</v>
+      </c>
+      <c r="N14">
+        <v>0.01605</v>
+      </c>
+      <c r="O14">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P14">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q14">
+        <v>0.001054209475</v>
+      </c>
+      <c r="R14">
+        <v>0.006325256849999999</v>
+      </c>
+      <c r="S14">
+        <v>0.0009992915493494887</v>
+      </c>
+      <c r="T14">
+        <v>0.0009287630398227111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1970485</v>
+      </c>
+      <c r="H15">
+        <v>0.394097</v>
+      </c>
+      <c r="I15">
+        <v>0.2958269392975915</v>
+      </c>
+      <c r="J15">
+        <v>0.2187929046381007</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.171222</v>
+      </c>
+      <c r="O15">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P15">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q15">
+        <v>0.07692917942233332</v>
+      </c>
+      <c r="R15">
+        <v>0.461575076534</v>
+      </c>
+      <c r="S15">
+        <v>0.07292163532786335</v>
+      </c>
+      <c r="T15">
+        <v>0.06777493489266265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1970485</v>
+      </c>
+      <c r="H16">
+        <v>0.394097</v>
+      </c>
+      <c r="I16">
+        <v>0.2958269392975915</v>
+      </c>
+      <c r="J16">
+        <v>0.2187929046381007</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.652864</v>
+      </c>
+      <c r="O16">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P16">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q16">
+        <v>0.04288195730133333</v>
+      </c>
+      <c r="R16">
+        <v>0.257291743808</v>
+      </c>
+      <c r="S16">
+        <v>0.04064806716975107</v>
+      </c>
+      <c r="T16">
+        <v>0.03777918711718471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1970485</v>
+      </c>
+      <c r="H17">
+        <v>0.394097</v>
+      </c>
+      <c r="I17">
+        <v>0.2958269392975915</v>
+      </c>
+      <c r="J17">
+        <v>0.2187929046381007</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.940835</v>
+      </c>
+      <c r="O17">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P17">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q17">
+        <v>0.19121931274875</v>
+      </c>
+      <c r="R17">
+        <v>0.7648772509949999</v>
+      </c>
+      <c r="S17">
+        <v>0.1812579452506275</v>
+      </c>
+      <c r="T17">
+        <v>0.1123100195884306</v>
       </c>
     </row>
   </sheetData>
